--- a/Capacity.xlsx
+++ b/Capacity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aedue-my.sharepoint.com/personal/michele_cedolin_aum_edu_kw/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele.Cedolin\OneDrive - Al-Arabia Educational Enterprises Company\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D474B1F2-FBF0-4171-BCED-8217B6DE548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7489C8-239F-4350-909A-BF8840B9FFD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF632BB2-6506-4156-A994-87EE2B4C850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{54291AA2-5F70-8A40-BAB9-146D8DC84F94}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Capacity Trabzon" sheetId="4" r:id="rId3"/>
     <sheet name="Capacity Giresun" sheetId="6" r:id="rId4"/>
     <sheet name="Capacity Ordu" sheetId="7" r:id="rId5"/>
+    <sheet name="Emlak Endeksleri" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>capacity</t>
   </si>
@@ -56,12 +57,63 @@
   <si>
     <t>capCritNorm</t>
   </si>
+  <si>
+    <t>Zingat.com</t>
+  </si>
+  <si>
+    <t>Rize</t>
+  </si>
+  <si>
+    <t>Sales/m2</t>
+  </si>
+  <si>
+    <t>Rent/m2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>USD/TRY</t>
+  </si>
+  <si>
+    <t>Trabzon</t>
+  </si>
+  <si>
+    <t>Ordu</t>
+  </si>
+  <si>
+    <t>Giresun</t>
+  </si>
+  <si>
+    <t>https://www.endeksa.com/tr/analiz/trabzon/endeks/satilik/konut</t>
+  </si>
+  <si>
+    <t>https://www.tcmb.gov.tr/kurlar/202306/26062023.xml</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>USD/M2</t>
+  </si>
+  <si>
+    <t>Overhead Cost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +126,14 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -113,6 +173,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE9B42-7380-BB40-917E-3C53B94C62BB}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,28 +608,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -565,35 +637,32 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I5">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,24 +671,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91D6F66-DDFC-454C-87BB-563E6AD94CDC}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="4"/>
+    <col min="3" max="3" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -648,7 +718,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -677,7 +747,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,69 +776,272 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>530</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4">
-        <v>485</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4">
-        <v>451</v>
+        <v>112</v>
       </c>
       <c r="F5" s="4">
-        <v>428</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4">
-        <v>507</v>
+        <v>126</v>
       </c>
       <c r="H5" s="4">
-        <v>654</v>
+        <v>163</v>
       </c>
       <c r="I5" s="4">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F7" s="5"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <f>SUM(B1:B5)</f>
+        <v>14487</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
+        <v>10958</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>10982</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>11175</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>12773</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>10336</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>9456</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>11588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <f>B7/100</f>
+        <v>144.87</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:I9" si="1">C7/100</f>
+        <v>109.58</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>109.82</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>111.75</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>127.73</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>103.36</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>94.56</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>115.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <f>B9*$K$11</f>
+        <v>330.30359999999996</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
+        <v>249.84239999999997</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>250.38959999999997</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="2"/>
+        <v>254.79</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>291.2244</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>235.66079999999997</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>215.59679999999997</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>264.20639999999997</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10">
+        <f>B9*$K$12</f>
+        <v>91854.823499999999</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
+        <v>69479.198999999993</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>69631.370999999985</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="3"/>
+        <v>70855.087499999994</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>80987.2065</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>65535.407999999996</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>59955.767999999996</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>73473.713999999993</v>
+      </c>
+      <c r="K12" s="4">
+        <v>634.04999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <f>B11+1000</f>
+        <v>1330.3036</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:I14" si="4">C11+1000</f>
+        <v>1249.8424</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="4"/>
+        <v>1250.3896</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="4"/>
+        <v>1254.79</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="4"/>
+        <v>1291.2244000000001</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="4"/>
+        <v>1235.6607999999999</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="4"/>
+        <v>1215.5968</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="4"/>
+        <v>1264.2064</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06920CBA-FA18-4123-BCFF-04BB9468F5BA}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -794,7 +1067,7 @@
     <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +1096,7 @@
         <v>392628</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -852,7 +1125,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -881,69 +1154,288 @@
         <v>276196</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>28904</v>
+        <v>7226</v>
       </c>
       <c r="C5" s="4">
-        <v>24890</v>
+        <v>6222</v>
       </c>
       <c r="D5" s="4">
-        <v>25693</v>
+        <v>6423</v>
       </c>
       <c r="E5" s="4">
-        <v>36130</v>
+        <v>9032</v>
       </c>
       <c r="F5" s="4">
-        <v>26496</v>
+        <v>6624</v>
       </c>
       <c r="G5" s="4">
-        <v>44962</v>
+        <v>11240</v>
       </c>
       <c r="H5" s="4">
-        <v>38539</v>
+        <v>9634</v>
       </c>
       <c r="I5" s="4">
-        <v>30510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>7627</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <f>SUM(B1:B5)</f>
+        <v>750954</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
+        <v>741441</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>694254</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>835306</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>751480</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>886978</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>737913</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>678478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <f>B7/1000</f>
+        <v>750.95399999999995</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:I9" si="1">C7/1000</f>
+        <v>741.44100000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>694.25400000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>835.30600000000004</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>751.48</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>886.97799999999995</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>737.91300000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>678.47799999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <f>B9*$K$11</f>
+        <v>1802.2895999999998</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
+        <v>1779.4584</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>1666.2095999999999</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="2"/>
+        <v>2004.7344000000001</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>1803.5519999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>2128.7471999999998</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>1770.9911999999999</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>1628.3471999999999</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10">
+        <f>B9*$K$12</f>
+        <v>439315.59953999997</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
+        <v>433750.39941000001</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>406145.53253999999</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="3"/>
+        <v>488662.36306</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>439623.31479999999</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>518890.99977999995</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>431686.48413</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>396916.41477999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>585.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <f>B11+1000</f>
+        <v>2802.2896000000001</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:I14" si="4">C11+1000</f>
+        <v>2779.4584</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="4"/>
+        <v>2666.2096000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="4"/>
+        <v>3004.7344000000003</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="4"/>
+        <v>2803.5519999999997</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="4"/>
+        <v>3128.7471999999998</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="4"/>
+        <v>2770.9911999999999</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="4"/>
+        <v>2628.3472000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,16 +1444,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD454F3C-5506-4A85-A198-1ABF11FA397C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" bestFit="1" customWidth="1"/>
@@ -969,7 +1461,7 @@
     <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1490,7 @@
         <v>129953</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1519,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1056,69 +1548,288 @@
         <v>219894</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>13638</v>
+        <v>3409</v>
       </c>
       <c r="C5" s="4">
-        <v>16847</v>
+        <v>4211</v>
       </c>
       <c r="D5" s="4">
-        <v>23667</v>
+        <v>5916</v>
       </c>
       <c r="E5" s="4">
-        <v>14039</v>
+        <v>3509</v>
       </c>
       <c r="F5" s="4">
-        <v>16045</v>
+        <v>4011</v>
       </c>
       <c r="G5" s="4">
-        <v>19254</v>
+        <v>4813</v>
       </c>
       <c r="H5" s="4">
-        <v>18853</v>
+        <v>4713</v>
       </c>
       <c r="I5" s="4">
-        <v>18051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>4512</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <f>SUM(B1:B5)</f>
+        <v>305367</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
+        <v>405474</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>361566</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>305087</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>431699</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>406066</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>310640</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>355804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <f>B7/1000</f>
+        <v>305.36700000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:I9" si="1">C7/1000</f>
+        <v>405.47399999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>361.56599999999997</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>305.08699999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>431.69900000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>406.06599999999997</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>310.64</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>355.80399999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <f>B9*$K$11</f>
+        <v>638.21703000000002</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
+        <v>847.44065999999987</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>755.67293999999993</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="2"/>
+        <v>637.63182999999992</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>902.25090999999998</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>848.67793999999992</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>649.23759999999993</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>743.63035999999988</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10">
+        <f>B9*$K$12</f>
+        <v>151587.23247000002</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
+        <v>201281.34834</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>179484.97805999999</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="3"/>
+        <v>151448.23767</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>214299.70059000002</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>201575.22305999999</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>154204.80240000002</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>176624.66363999998</v>
+      </c>
+      <c r="K12" s="4">
+        <v>496.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <f>B11+1000</f>
+        <v>1638.21703</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:I14" si="4">C11+1000</f>
+        <v>1847.4406599999998</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="4"/>
+        <v>1755.6729399999999</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="4"/>
+        <v>1637.6318299999998</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="4"/>
+        <v>1902.25091</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="4"/>
+        <v>1848.67794</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="4"/>
+        <v>1649.2375999999999</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="4"/>
+        <v>1743.6303599999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1127,24 +1838,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC95168-9363-45EA-AC76-14BBC69D1F9F}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="2"/>
+    <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1885,7 @@
         <v>470877</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1914,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1231,75 +1943,523 @@
         <v>318725</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>464</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4">
-        <v>483</v>
+        <v>120</v>
       </c>
       <c r="D4" s="4">
-        <v>568</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4">
-        <v>502</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4">
-        <v>559</v>
+        <v>139</v>
       </c>
       <c r="G4" s="4">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4">
-        <v>436</v>
+        <v>109</v>
       </c>
       <c r="I4" s="4">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>43819</v>
+        <v>10954</v>
       </c>
       <c r="C5" s="4">
-        <v>42823</v>
+        <v>10705</v>
       </c>
       <c r="D5" s="4">
-        <v>43819</v>
+        <v>10954</v>
       </c>
       <c r="E5" s="4">
-        <v>30872</v>
+        <v>7718</v>
       </c>
       <c r="F5" s="4">
-        <v>49795</v>
+        <v>12448</v>
       </c>
       <c r="G5" s="4">
-        <v>58758</v>
+        <v>14689</v>
       </c>
       <c r="H5" s="4">
-        <v>55770</v>
+        <v>13942</v>
       </c>
       <c r="I5" s="4">
-        <v>48799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12199</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <f>SUM(B1:B5)</f>
+        <v>683898</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
+        <v>693262</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>942420</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>899502</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>764570</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>976912</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1066067</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>804625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <f>B7/1000</f>
+        <v>683.89800000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:I9" si="1">C7/1000</f>
+        <v>693.26199999999994</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>942.42</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>899.50199999999995</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>764.57</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>976.91200000000003</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>1066.067</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>804.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <f>B9*$K$11</f>
+        <v>1668.7111199999999</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
+        <v>1691.5592799999997</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>2299.5047999999997</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="2"/>
+        <v>2194.7848799999997</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>1865.5508</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>2383.6652800000002</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>2601.2034800000001</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>1963.2849999999999</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10">
+        <f>B9*$K$12</f>
+        <v>400422.27900000004</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
+        <v>405904.90099999995</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>551786.91</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="3"/>
+        <v>526658.42099999997</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>447655.73500000004</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>571981.97600000002</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>624182.22849999997</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>471107.9375</v>
+      </c>
+      <c r="K12" s="4">
+        <v>585.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <f>B11+1000</f>
+        <v>2668.7111199999999</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:I14" si="4">C11+1000</f>
+        <v>2691.5592799999995</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="4"/>
+        <v>3299.5047999999997</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="4"/>
+        <v>3194.7848799999997</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="4"/>
+        <v>2865.5508</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="4"/>
+        <v>3383.6652800000002</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="4"/>
+        <v>3601.2034800000001</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="4"/>
+        <v>2963.2849999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C53AB6-A043-4035-AC67-DF583BCD96AB}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14981</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43.61</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.2022999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15414</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11469</v>
+      </c>
+      <c r="D9" s="2">
+        <v>47.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16403</v>
+      </c>
+      <c r="D14" s="2">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.2023000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>25.87</v>
+      </c>
+      <c r="J14" s="8">
+        <f>C14/H14</f>
+        <v>634.05488983378427</v>
+      </c>
+      <c r="K14" s="8">
+        <f>D14/H14</f>
+        <v>2.280633938925396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15155</v>
+      </c>
+      <c r="D16" s="2">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6.2023000000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>25.87</v>
+      </c>
+      <c r="J16" s="8">
+        <f>C16/H16</f>
+        <v>585.81368380363358</v>
+      </c>
+      <c r="K16" s="8">
+        <f>D16/H16</f>
+        <v>2.3965983764978738</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15147</v>
+      </c>
+      <c r="D18" s="2">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.2023000000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>25.87</v>
+      </c>
+      <c r="J18" s="8">
+        <f>C18/H18</f>
+        <v>585.50444530344021</v>
+      </c>
+      <c r="K18" s="8">
+        <f>D18/H18</f>
+        <v>2.435253189022033</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12842</v>
+      </c>
+      <c r="D20" s="2">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6.2023000000000001</v>
+      </c>
+      <c r="H20" s="2">
+        <v>25.87</v>
+      </c>
+      <c r="J20" s="8">
+        <f>C20/H20</f>
+        <v>496.40510243525318</v>
+      </c>
+      <c r="K20" s="8">
+        <f>D20/H20</f>
+        <v>2.0873598763045997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Capacity.xlsx
+++ b/Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele.Cedolin\OneDrive - Al-Arabia Educational Enterprises Company\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aedue-my.sharepoint.com/personal/michele_cedolin_aum_edu_kw/Documents/Desktop/p-median data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF632BB2-6506-4156-A994-87EE2B4C850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{AF632BB2-6506-4156-A994-87EE2B4C850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D2C5F40-D47E-4183-A456-730E17DCDEEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{54291AA2-5F70-8A40-BAB9-146D8DC84F94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{54291AA2-5F70-8A40-BAB9-146D8DC84F94}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacity" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>capacity</t>
   </si>
@@ -503,7 +503,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91D6F66-DDFC-454C-87BB-563E6AD94CDC}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,28 +694,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>7528</v>
+        <v>225840</v>
       </c>
       <c r="C1" s="4">
-        <v>5581</v>
+        <v>167430</v>
       </c>
       <c r="D1" s="4">
-        <v>3894</v>
+        <v>116820</v>
       </c>
       <c r="E1" s="4">
-        <v>6620</v>
+        <v>198600</v>
       </c>
       <c r="F1" s="4">
-        <v>6620</v>
+        <v>198600</v>
       </c>
       <c r="G1" s="4">
-        <v>5452</v>
+        <v>163560</v>
       </c>
       <c r="H1" s="4">
-        <v>4932</v>
+        <v>147960</v>
       </c>
       <c r="I1" s="4">
-        <v>4802</v>
+        <v>144060</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1258</v>
+        <v>37740</v>
       </c>
       <c r="C2" s="4">
-        <v>1132</v>
+        <v>33960</v>
       </c>
       <c r="D2" s="4">
-        <v>1174</v>
+        <v>35220</v>
       </c>
       <c r="E2" s="4">
-        <v>1048</v>
+        <v>31440</v>
       </c>
       <c r="F2" s="4">
-        <v>1237</v>
+        <v>37110</v>
       </c>
       <c r="G2" s="4">
-        <v>1153</v>
+        <v>34590</v>
       </c>
       <c r="H2" s="4">
-        <v>1069</v>
+        <v>32070</v>
       </c>
       <c r="I2" s="4">
-        <v>629</v>
+        <v>18870</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -752,28 +752,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>5550</v>
+        <v>166500</v>
       </c>
       <c r="C3" s="4">
-        <v>4135</v>
+        <v>124050</v>
       </c>
       <c r="D3" s="4">
-        <v>5768</v>
+        <v>173040</v>
       </c>
       <c r="E3" s="4">
-        <v>3374</v>
+        <v>101220</v>
       </c>
       <c r="F3" s="4">
-        <v>4788</v>
+        <v>143640</v>
       </c>
       <c r="G3" s="4">
-        <v>3591</v>
+        <v>107730</v>
       </c>
       <c r="H3" s="4">
-        <v>3265</v>
+        <v>97950</v>
       </c>
       <c r="I3" s="4">
-        <v>5986</v>
+        <v>179580</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,28 +781,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="C4" s="4">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D4" s="4">
-        <v>25</v>
+        <v>750</v>
       </c>
       <c r="E4" s="4">
-        <v>21</v>
+        <v>630</v>
       </c>
       <c r="F4" s="4">
-        <v>21</v>
+        <v>630</v>
       </c>
       <c r="G4" s="4">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="H4" s="4">
-        <v>27</v>
+        <v>810</v>
       </c>
       <c r="I4" s="4">
-        <v>28</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -810,28 +810,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>132</v>
+        <v>3960</v>
       </c>
       <c r="C5" s="4">
-        <v>90</v>
+        <v>2700</v>
       </c>
       <c r="D5" s="4">
-        <v>121</v>
+        <v>3630</v>
       </c>
       <c r="E5" s="4">
-        <v>112</v>
+        <v>3360</v>
       </c>
       <c r="F5" s="4">
-        <v>107</v>
+        <v>3210</v>
       </c>
       <c r="G5" s="4">
-        <v>126</v>
+        <v>3780</v>
       </c>
       <c r="H5" s="4">
-        <v>163</v>
+        <v>4890</v>
       </c>
       <c r="I5" s="4">
-        <v>143</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -842,36 +842,36 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <f>SUM(B1:B5)</f>
-        <v>14487</v>
+        <f>SUM(B2:B5)</f>
+        <v>208770</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
-        <v>10958</v>
+        <f t="shared" ref="C7:I7" si="0">SUM(C2:C5)</f>
+        <v>161310</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>10982</v>
+        <v>212640</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>11175</v>
+        <v>136650</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>12773</v>
+        <v>184590</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>10336</v>
+        <v>146520</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>9456</v>
+        <v>135720</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>11588</v>
+        <v>203580</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -889,36 +889,36 @@
         <v>17</v>
       </c>
       <c r="B9" s="4">
-        <f>B7/100</f>
-        <v>144.87</v>
+        <f>B7/1000</f>
+        <v>208.77</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:I9" si="1">C7/100</f>
-        <v>109.58</v>
+        <f t="shared" ref="C9:I9" si="1">C7/1000</f>
+        <v>161.31</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>109.82</v>
+        <v>212.64</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>111.75</v>
+        <v>136.65</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>127.73</v>
+        <v>184.59</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>103.36</v>
+        <v>146.52000000000001</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>94.56</v>
+        <v>135.72</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>115.88</v>
+        <v>203.58</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -932,38 +932,38 @@
       </c>
       <c r="B11" s="10">
         <f>B9*$K$11</f>
-        <v>330.30359999999996</v>
+        <v>594.99450000000002</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
-        <v>249.84239999999997</v>
+        <v>459.73350000000005</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="2"/>
-        <v>250.38959999999997</v>
+        <v>606.024</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="2"/>
-        <v>254.79</v>
+        <v>389.45250000000004</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="2"/>
-        <v>291.2244</v>
+        <v>526.08150000000001</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>235.66079999999997</v>
+        <v>417.58200000000005</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>215.59679999999997</v>
+        <v>386.80200000000002</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>264.20639999999997</v>
+        <v>580.20300000000009</v>
       </c>
       <c r="K11" s="4">
-        <v>2.2799999999999998</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -972,38 +972,38 @@
       </c>
       <c r="B12" s="10">
         <f>B9*$K$12</f>
-        <v>91854.823499999999</v>
+        <v>147007.48319999999</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
-        <v>69479.198999999993</v>
+        <v>113588.0496</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>69631.370999999985</v>
+        <v>149732.58239999998</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>70855.087499999994</v>
+        <v>96223.463999999993</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="3"/>
-        <v>80987.2065</v>
+        <v>129980.89439999999</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="3"/>
-        <v>65535.407999999996</v>
+        <v>103173.5232</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="3"/>
-        <v>59955.767999999996</v>
+        <v>95568.595199999996</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="3"/>
-        <v>73473.713999999993</v>
+        <v>143352.8928</v>
       </c>
       <c r="K12" s="4">
-        <v>634.04999999999995</v>
+        <v>704.16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1012,48 +1012,51 @@
       </c>
       <c r="B14" s="10">
         <f>B11+1000</f>
-        <v>1330.3036</v>
+        <v>1594.9945</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:I14" si="4">C11+1000</f>
-        <v>1249.8424</v>
+        <v>1459.7335</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="4"/>
-        <v>1250.3896</v>
+        <v>1606.0239999999999</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="4"/>
-        <v>1254.79</v>
+        <v>1389.4525000000001</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="4"/>
-        <v>1291.2244000000001</v>
+        <v>1526.0815</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="4"/>
-        <v>1235.6607999999999</v>
+        <v>1417.5820000000001</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="4"/>
-        <v>1215.5968</v>
+        <v>1386.8020000000001</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="4"/>
-        <v>1264.2064</v>
+        <v>1580.203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7:I7" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06920CBA-FA18-4123-BCFF-04BB9468F5BA}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A7" sqref="A7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1072,28 +1075,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>384449</v>
+        <v>11533470</v>
       </c>
       <c r="C1" s="4">
-        <v>261752</v>
+        <v>7852560</v>
       </c>
       <c r="D1" s="4">
-        <v>417168</v>
+        <v>12515040</v>
       </c>
       <c r="E1" s="4">
-        <v>343550</v>
+        <v>10306500</v>
       </c>
       <c r="F1" s="4">
-        <v>376269</v>
+        <v>11288070</v>
       </c>
       <c r="G1" s="4">
-        <v>474426</v>
+        <v>14232780</v>
       </c>
       <c r="H1" s="4">
-        <v>302651</v>
+        <v>9079530</v>
       </c>
       <c r="I1" s="4">
-        <v>392628</v>
+        <v>11778840</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1101,28 +1104,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1802</v>
+        <v>54060</v>
       </c>
       <c r="C2" s="4">
-        <v>2253</v>
+        <v>67590</v>
       </c>
       <c r="D2" s="4">
-        <v>2535</v>
+        <v>76050</v>
       </c>
       <c r="E2" s="4">
-        <v>3380</v>
+        <v>101400</v>
       </c>
       <c r="F2" s="4">
-        <v>2986</v>
+        <v>89580</v>
       </c>
       <c r="G2" s="4">
-        <v>3211</v>
+        <v>96330</v>
       </c>
       <c r="H2" s="4">
-        <v>3155</v>
+        <v>94650</v>
       </c>
       <c r="I2" s="4">
-        <v>1971</v>
+        <v>59130</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1130,28 +1133,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>357430</v>
+        <v>10722900</v>
       </c>
       <c r="C3" s="4">
-        <v>471158</v>
+        <v>14134740</v>
       </c>
       <c r="D3" s="4">
-        <v>268073</v>
+        <v>8042190</v>
       </c>
       <c r="E3" s="4">
-        <v>479282</v>
+        <v>14378460</v>
       </c>
       <c r="F3" s="4">
-        <v>365554</v>
+        <v>10966620</v>
       </c>
       <c r="G3" s="4">
-        <v>398048</v>
+        <v>11941440</v>
       </c>
       <c r="H3" s="4">
-        <v>422418</v>
+        <v>12672540</v>
       </c>
       <c r="I3" s="4">
-        <v>276196</v>
+        <v>8285880</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1159,28 +1162,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>47</v>
+        <v>1410</v>
       </c>
       <c r="C4" s="4">
-        <v>56</v>
+        <v>1680</v>
       </c>
       <c r="D4" s="4">
-        <v>55</v>
+        <v>1650</v>
       </c>
       <c r="E4" s="4">
-        <v>62</v>
+        <v>1860</v>
       </c>
       <c r="F4" s="4">
-        <v>47</v>
+        <v>1410</v>
       </c>
       <c r="G4" s="4">
-        <v>53</v>
+        <v>1590</v>
       </c>
       <c r="H4" s="4">
-        <v>55</v>
+        <v>1650</v>
       </c>
       <c r="I4" s="4">
-        <v>56</v>
+        <v>1680</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1196,28 +1199,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>7226</v>
+        <v>216780</v>
       </c>
       <c r="C5" s="4">
-        <v>6222</v>
+        <v>186660</v>
       </c>
       <c r="D5" s="4">
-        <v>6423</v>
+        <v>192690</v>
       </c>
       <c r="E5" s="4">
-        <v>9032</v>
+        <v>270960</v>
       </c>
       <c r="F5" s="4">
-        <v>6624</v>
+        <v>198720</v>
       </c>
       <c r="G5" s="4">
-        <v>11240</v>
+        <v>337200</v>
       </c>
       <c r="H5" s="4">
-        <v>9634</v>
+        <v>289020</v>
       </c>
       <c r="I5" s="4">
-        <v>7627</v>
+        <v>228810</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1236,39 +1239,40 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <f>SUM(B1:B5)</f>
-        <v>750954</v>
+        <f>SUM(B2:B5)</f>
+        <v>10995150</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
-        <v>741441</v>
+        <f t="shared" ref="C7:I7" si="0">SUM(C2:C5)</f>
+        <v>14390670</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>694254</v>
+        <v>8312580</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>835306</v>
+        <v>14752680</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>751480</v>
+        <v>11256330</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>886978</v>
+        <v>12376560</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>737913</v>
+        <v>13057860</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>678478</v>
+        <v>8575500</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -1284,35 +1288,35 @@
       </c>
       <c r="B9" s="4">
         <f>B7/1000</f>
-        <v>750.95399999999995</v>
+        <v>10995.15</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:I9" si="1">C7/1000</f>
-        <v>741.44100000000003</v>
+        <v>14390.67</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>694.25400000000002</v>
+        <v>8312.58</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>835.30600000000004</v>
+        <v>14752.68</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>751.48</v>
+        <v>11256.33</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>886.97799999999995</v>
+        <v>12376.56</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>737.91300000000001</v>
+        <v>13057.86</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>678.47799999999995</v>
+        <v>8575.5</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1326,38 +1330,38 @@
       </c>
       <c r="B11" s="10">
         <f>B9*$K$11</f>
-        <v>1802.2895999999998</v>
+        <v>34964.576999999997</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
-        <v>1779.4584</v>
+        <v>45762.330600000001</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="2"/>
-        <v>1666.2095999999999</v>
+        <v>26434.004400000002</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="2"/>
-        <v>2004.7344000000001</v>
+        <v>46913.522400000002</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="2"/>
-        <v>1803.5519999999999</v>
+        <v>35795.129399999998</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>2128.7471999999998</v>
+        <v>39357.460800000001</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>1770.9911999999999</v>
+        <v>41523.9948</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>1628.3471999999999</v>
+        <v>27270.09</v>
       </c>
       <c r="K11" s="4">
-        <v>2.4</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1366,38 +1370,38 @@
       </c>
       <c r="B12" s="10">
         <f>B9*$K$12</f>
-        <v>439315.59953999997</v>
+        <v>7133873.2230000002</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
-        <v>433750.39941000001</v>
+        <v>9336954.5094000008</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>406145.53253999999</v>
+        <v>5393368.1556000002</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>488662.36306</v>
+        <v>9571833.8376000002</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="3"/>
-        <v>439623.31479999999</v>
+        <v>7303332.0306000002</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="3"/>
-        <v>518890.99977999995</v>
+        <v>8030159.6592000006</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="3"/>
-        <v>431686.48413</v>
+        <v>8472200.7252000012</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="3"/>
-        <v>396916.41477999999</v>
+        <v>5563955.9100000001</v>
       </c>
       <c r="K12" s="4">
-        <v>585.01</v>
+        <v>648.82000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1406,36 +1410,86 @@
       </c>
       <c r="B14" s="10">
         <f>B11+1000</f>
-        <v>2802.2896000000001</v>
+        <v>35964.576999999997</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:I14" si="4">C11+1000</f>
-        <v>2779.4584</v>
+        <v>46762.330600000001</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="4"/>
-        <v>2666.2096000000001</v>
+        <v>27434.004400000002</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="4"/>
-        <v>3004.7344000000003</v>
+        <v>47913.522400000002</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="4"/>
-        <v>2803.5519999999997</v>
+        <v>36795.129399999998</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="4"/>
-        <v>3128.7471999999998</v>
+        <v>40357.460800000001</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="4"/>
-        <v>2770.9911999999999</v>
+        <v>42523.9948</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="4"/>
-        <v>2628.3472000000002</v>
-      </c>
+        <v>28270.09</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD454F3C-5506-4A85-A198-1ABF11FA397C}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A7" sqref="A7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1466,28 +1520,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>171997</v>
+        <v>5159910</v>
       </c>
       <c r="C1" s="4">
-        <v>171997</v>
+        <v>5159910</v>
       </c>
       <c r="D1" s="4">
-        <v>171997</v>
+        <v>5159910</v>
       </c>
       <c r="E1" s="4">
-        <v>118486</v>
+        <v>3554580</v>
       </c>
       <c r="F1" s="4">
-        <v>198752</v>
+        <v>5962560</v>
       </c>
       <c r="G1" s="4">
-        <v>183463</v>
+        <v>5503890</v>
       </c>
       <c r="H1" s="4">
-        <v>118486</v>
+        <v>3554580</v>
       </c>
       <c r="I1" s="4">
-        <v>129953</v>
+        <v>3898590</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1495,28 +1549,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1018</v>
+        <v>30540</v>
       </c>
       <c r="C2" s="4">
-        <v>1759</v>
+        <v>52770</v>
       </c>
       <c r="D2" s="4">
-        <v>1636</v>
+        <v>49080</v>
       </c>
       <c r="E2" s="4">
-        <v>1080</v>
+        <v>32400</v>
       </c>
       <c r="F2" s="4">
-        <v>1420</v>
+        <v>42600</v>
       </c>
       <c r="G2" s="4">
-        <v>1666</v>
+        <v>49980</v>
       </c>
       <c r="H2" s="4">
-        <v>1636</v>
+        <v>49080</v>
       </c>
       <c r="I2" s="4">
-        <v>1420</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1524,28 +1578,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>128903</v>
+        <v>3867090</v>
       </c>
       <c r="C3" s="4">
-        <v>227477</v>
+        <v>6824310</v>
       </c>
       <c r="D3" s="4">
-        <v>181981</v>
+        <v>5459430</v>
       </c>
       <c r="E3" s="4">
-        <v>181981</v>
+        <v>5459430</v>
       </c>
       <c r="F3" s="4">
-        <v>227477</v>
+        <v>6824310</v>
       </c>
       <c r="G3" s="4">
-        <v>216103</v>
+        <v>6483090</v>
       </c>
       <c r="H3" s="4">
-        <v>185773</v>
+        <v>5573190</v>
       </c>
       <c r="I3" s="4">
-        <v>219894</v>
+        <v>6596820</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1553,28 +1607,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="4">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="D4" s="4">
-        <v>36</v>
+        <v>1080</v>
       </c>
       <c r="E4" s="4">
-        <v>31</v>
+        <v>930</v>
       </c>
       <c r="F4" s="4">
-        <v>39</v>
+        <v>1170</v>
       </c>
       <c r="G4" s="4">
-        <v>21</v>
+        <v>630</v>
       </c>
       <c r="H4" s="4">
-        <v>32</v>
+        <v>960</v>
       </c>
       <c r="I4" s="4">
-        <v>25</v>
+        <v>750</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1590,28 +1644,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>3409</v>
+        <v>102270</v>
       </c>
       <c r="C5" s="4">
-        <v>4211</v>
+        <v>126330</v>
       </c>
       <c r="D5" s="4">
-        <v>5916</v>
+        <v>177480</v>
       </c>
       <c r="E5" s="4">
-        <v>3509</v>
+        <v>105270</v>
       </c>
       <c r="F5" s="4">
-        <v>4011</v>
+        <v>120330</v>
       </c>
       <c r="G5" s="4">
-        <v>4813</v>
+        <v>144390</v>
       </c>
       <c r="H5" s="4">
-        <v>4713</v>
+        <v>141390</v>
       </c>
       <c r="I5" s="4">
-        <v>4512</v>
+        <v>135360</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1630,39 +1684,40 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <f>SUM(B1:B5)</f>
-        <v>305367</v>
+        <f>SUM(B2:B5)</f>
+        <v>4001100</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
-        <v>405474</v>
+        <f t="shared" ref="C7:I7" si="0">SUM(C2:C5)</f>
+        <v>7004310</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>361566</v>
+        <v>5687070</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>305087</v>
+        <v>5598030</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>431699</v>
+        <v>6988410</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>406066</v>
+        <v>6678090</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>310640</v>
+        <v>5764620</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>355804</v>
+        <v>6775530</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -1678,35 +1733,35 @@
       </c>
       <c r="B9" s="4">
         <f>B7/1000</f>
-        <v>305.36700000000002</v>
+        <v>4001.1</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:I9" si="1">C7/1000</f>
-        <v>405.47399999999999</v>
+        <v>7004.31</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>361.56599999999997</v>
+        <v>5687.07</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>305.08699999999999</v>
+        <v>5598.03</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>431.69900000000001</v>
+        <v>6988.41</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>406.06599999999997</v>
+        <v>6678.09</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>310.64</v>
+        <v>5764.62</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>355.80399999999997</v>
+        <v>6775.53</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,38 +1775,38 @@
       </c>
       <c r="B11" s="10">
         <f>B9*$K$11</f>
-        <v>638.21703000000002</v>
+        <v>10042.760999999999</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
-        <v>847.44065999999987</v>
+        <v>17580.8181</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="2"/>
-        <v>755.67293999999993</v>
+        <v>14274.545699999999</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="2"/>
-        <v>637.63182999999992</v>
+        <v>14051.055299999998</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="2"/>
-        <v>902.25090999999998</v>
+        <v>17540.909099999997</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>848.67793999999992</v>
+        <v>16762.0059</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>649.23759999999993</v>
+        <v>14469.196199999998</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>743.63035999999988</v>
+        <v>17006.580299999998</v>
       </c>
       <c r="K11" s="4">
-        <v>2.09</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1760,38 +1815,38 @@
       </c>
       <c r="B12" s="10">
         <f>B9*$K$12</f>
-        <v>151587.23247000002</v>
+        <v>2261181.6540000001</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
-        <v>201281.34834</v>
+        <v>3958415.7534000003</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>179484.97805999999</v>
+        <v>3213990.7397999996</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>151448.23767</v>
+        <v>3163670.6741999998</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="3"/>
-        <v>214299.70059000002</v>
+        <v>3949430.0274</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="3"/>
-        <v>201575.22305999999</v>
+        <v>3774055.7826</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="3"/>
-        <v>154204.80240000002</v>
+        <v>3257817.3467999999</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="3"/>
-        <v>176624.66363999998</v>
+        <v>3829123.0241999999</v>
       </c>
       <c r="K12" s="4">
-        <v>496.41</v>
+        <v>565.14</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1800,36 +1855,86 @@
       </c>
       <c r="B14" s="10">
         <f>B11+1000</f>
-        <v>1638.21703</v>
+        <v>11042.760999999999</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:I14" si="4">C11+1000</f>
-        <v>1847.4406599999998</v>
+        <v>18580.8181</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="4"/>
-        <v>1755.6729399999999</v>
+        <v>15274.545699999999</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="4"/>
-        <v>1637.6318299999998</v>
+        <v>15051.055299999998</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="4"/>
-        <v>1902.25091</v>
+        <v>18540.909099999997</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="4"/>
-        <v>1848.67794</v>
+        <v>17762.0059</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="4"/>
-        <v>1649.2375999999999</v>
+        <v>15469.196199999998</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="4"/>
-        <v>1743.6303599999999</v>
-      </c>
+        <v>18006.580299999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,16 +1943,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC95168-9363-45EA-AC76-14BBC69D1F9F}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="2" bestFit="1" customWidth="1"/>
@@ -1861,28 +1966,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>360671</v>
+        <v>10820130</v>
       </c>
       <c r="C1" s="4">
-        <v>310578</v>
+        <v>9317340</v>
       </c>
       <c r="D1" s="4">
-        <v>420783</v>
+        <v>12623490</v>
       </c>
       <c r="E1" s="4">
-        <v>551026</v>
+        <v>16530780</v>
       </c>
       <c r="F1" s="4">
-        <v>410765</v>
+        <v>12322950</v>
       </c>
       <c r="G1" s="4">
-        <v>530988</v>
+        <v>15929640</v>
       </c>
       <c r="H1" s="4">
-        <v>601119</v>
+        <v>18033570</v>
       </c>
       <c r="I1" s="4">
-        <v>470877</v>
+        <v>14126310</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1890,28 +1995,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>3392</v>
+        <v>101760</v>
       </c>
       <c r="C2" s="4">
-        <v>3333</v>
+        <v>99990</v>
       </c>
       <c r="D2" s="4">
-        <v>2573</v>
+        <v>77190</v>
       </c>
       <c r="E2" s="4">
-        <v>1988</v>
+        <v>59640</v>
       </c>
       <c r="F2" s="4">
-        <v>2573</v>
+        <v>77190</v>
       </c>
       <c r="G2" s="4">
-        <v>2866</v>
+        <v>85980</v>
       </c>
       <c r="H2" s="4">
-        <v>2690</v>
+        <v>80700</v>
       </c>
       <c r="I2" s="4">
-        <v>2749</v>
+        <v>82470</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1919,28 +2024,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>308765</v>
+        <v>9262950</v>
       </c>
       <c r="C3" s="4">
-        <v>368526</v>
+        <v>11055780</v>
       </c>
       <c r="D3" s="4">
-        <v>507968</v>
+        <v>15239040</v>
       </c>
       <c r="E3" s="4">
-        <v>338645</v>
+        <v>10159350</v>
       </c>
       <c r="F3" s="4">
-        <v>338645</v>
+        <v>10159350</v>
       </c>
       <c r="G3" s="4">
-        <v>428287</v>
+        <v>12848610</v>
       </c>
       <c r="H3" s="4">
-        <v>448207</v>
+        <v>13446210</v>
       </c>
       <c r="I3" s="4">
-        <v>318725</v>
+        <v>9561750</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1948,28 +2053,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>116</v>
+        <v>3480</v>
       </c>
       <c r="C4" s="4">
-        <v>120</v>
+        <v>3600</v>
       </c>
       <c r="D4" s="4">
-        <v>142</v>
+        <v>4260</v>
       </c>
       <c r="E4" s="4">
-        <v>125</v>
+        <v>3750</v>
       </c>
       <c r="F4" s="4">
-        <v>139</v>
+        <v>4170</v>
       </c>
       <c r="G4" s="4">
-        <v>82</v>
+        <v>2460</v>
       </c>
       <c r="H4" s="4">
-        <v>109</v>
+        <v>3270</v>
       </c>
       <c r="I4" s="4">
-        <v>75</v>
+        <v>2250</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1985,28 +2090,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>10954</v>
+        <v>328620</v>
       </c>
       <c r="C5" s="4">
-        <v>10705</v>
+        <v>321150</v>
       </c>
       <c r="D5" s="4">
-        <v>10954</v>
+        <v>328620</v>
       </c>
       <c r="E5" s="4">
-        <v>7718</v>
+        <v>231540</v>
       </c>
       <c r="F5" s="4">
-        <v>12448</v>
+        <v>373440</v>
       </c>
       <c r="G5" s="4">
-        <v>14689</v>
+        <v>440670</v>
       </c>
       <c r="H5" s="4">
-        <v>13942</v>
+        <v>418260</v>
       </c>
       <c r="I5" s="4">
-        <v>12199</v>
+        <v>365970</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2029,39 +2134,40 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <f>SUM(B1:B5)</f>
-        <v>683898</v>
+        <f>SUM(B2:B5)</f>
+        <v>9696810</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:I7" si="0">SUM(C1:C5)</f>
-        <v>693262</v>
+        <f t="shared" ref="C7:I7" si="0">SUM(C2:C5)</f>
+        <v>11480520</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>942420</v>
+        <v>15649110</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>899502</v>
+        <v>10454280</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>764570</v>
+        <v>10614150</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>976912</v>
+        <v>13377720</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>1066067</v>
+        <v>13948440</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>804625</v>
+        <v>10012440</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -2077,35 +2183,35 @@
       </c>
       <c r="B9" s="4">
         <f>B7/1000</f>
-        <v>683.89800000000002</v>
+        <v>9696.81</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:I9" si="1">C7/1000</f>
-        <v>693.26199999999994</v>
+        <v>11480.52</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>942.42</v>
+        <v>15649.11</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>899.50199999999995</v>
+        <v>10454.280000000001</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>764.57</v>
+        <v>10614.15</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>976.91200000000003</v>
+        <v>13377.72</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>1066.067</v>
+        <v>13948.44</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>804.625</v>
+        <v>10012.44</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2119,38 +2225,38 @@
       </c>
       <c r="B11" s="10">
         <f>B9*$K$11</f>
-        <v>1668.7111199999999</v>
+        <v>30447.983400000001</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" ref="C11:I11" si="2">C9*$K$11</f>
-        <v>1691.5592799999997</v>
+        <v>36048.832800000004</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="2"/>
-        <v>2299.5047999999997</v>
+        <v>49138.205400000006</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="2"/>
-        <v>2194.7848799999997</v>
+        <v>32826.439200000001</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="2"/>
-        <v>1865.5508</v>
+        <v>33328.430999999997</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>2383.6652800000002</v>
+        <v>42006.040800000002</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>2601.2034800000001</v>
+        <v>43798.101600000002</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>1963.2849999999999</v>
+        <v>31439.061600000005</v>
       </c>
       <c r="K11" s="4">
-        <v>2.44</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2159,38 +2265,38 @@
       </c>
       <c r="B12" s="10">
         <f>B9*$K$12</f>
-        <v>400422.27900000004</v>
+        <v>6372452.6276999991</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" ref="C12:I12" si="3">C9*$K$12</f>
-        <v>405904.90099999995</v>
+        <v>7544653.3284</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>551786.91</v>
+        <v>10284125.6187</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>526658.42099999997</v>
+        <v>6870239.1875999998</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="3"/>
-        <v>447655.73500000004</v>
+        <v>6975300.9554999992</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="3"/>
-        <v>571981.97600000002</v>
+        <v>8791436.2523999996</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="3"/>
-        <v>624182.22849999997</v>
+        <v>9166496.3147999998</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="3"/>
-        <v>471107.9375</v>
+        <v>6579875.1947999997</v>
       </c>
       <c r="K12" s="4">
-        <v>585.5</v>
+        <v>657.17</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2199,36 +2305,86 @@
       </c>
       <c r="B14" s="10">
         <f>B11+1000</f>
-        <v>2668.7111199999999</v>
+        <v>31447.983400000001</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:I14" si="4">C11+1000</f>
-        <v>2691.5592799999995</v>
+        <v>37048.832800000004</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="4"/>
-        <v>3299.5047999999997</v>
+        <v>50138.205400000006</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="4"/>
-        <v>3194.7848799999997</v>
+        <v>33826.439200000001</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="4"/>
-        <v>2865.5508</v>
+        <v>34328.430999999997</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="4"/>
-        <v>3383.6652800000002</v>
+        <v>43006.040800000002</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="4"/>
-        <v>3601.2034800000001</v>
+        <v>44798.101600000002</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="4"/>
-        <v>2963.2849999999999</v>
-      </c>
+        <v>32439.061600000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2237,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C53AB6-A043-4035-AC67-DF583BCD96AB}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2458,6 +2614,141 @@
         <v>2.0873598763045997</v>
       </c>
     </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>18808</v>
+      </c>
+      <c r="D23" s="2">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8.2022999999999993</v>
+      </c>
+      <c r="H23" s="2">
+        <v>26.71</v>
+      </c>
+      <c r="J23" s="8">
+        <f>C23/H23</f>
+        <v>704.15574691126915</v>
+      </c>
+      <c r="K23" s="8">
+        <f>D23/H23</f>
+        <v>2.8453762635716959</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2">
+        <v>17330</v>
+      </c>
+      <c r="D25" s="2">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8.2022999999999993</v>
+      </c>
+      <c r="H25" s="2">
+        <v>26.71</v>
+      </c>
+      <c r="J25" s="8">
+        <f>C25/H25</f>
+        <v>648.82066641707229</v>
+      </c>
+      <c r="K25" s="8">
+        <f>D25/H25</f>
+        <v>3.182328715836765</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>17553</v>
+      </c>
+      <c r="D27" s="2">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8.2022999999999993</v>
+      </c>
+      <c r="H27" s="2">
+        <v>26.71</v>
+      </c>
+      <c r="J27" s="8">
+        <f>C27/H27</f>
+        <v>657.16959940097342</v>
+      </c>
+      <c r="K27" s="8">
+        <f>D27/H27</f>
+        <v>3.1448895544739797</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15095</v>
+      </c>
+      <c r="D29" s="2">
+        <v>67</v>
+      </c>
+      <c r="F29" s="2">
+        <v>8.2022999999999993</v>
+      </c>
+      <c r="H29" s="2">
+        <v>26.71</v>
+      </c>
+      <c r="J29" s="8">
+        <f>C29/H29</f>
+        <v>565.14414077124673</v>
+      </c>
+      <c r="K29" s="8">
+        <f>D29/H29</f>
+        <v>2.5084238113066268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
